--- a/docs/职教圈框架开发计划-安卓-20191108.xlsx
+++ b/docs/职教圈框架开发计划-安卓-20191108.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7860" tabRatio="254"/>
+    <workbookView windowWidth="19935" windowHeight="7860" tabRatio="254"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>职教圈安卓APP界面开发计划整理</t>
   </si>
@@ -227,7 +227,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,41 +279,365 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="1"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -315,17 +645,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -346,6 +921,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,42 +936,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -649,16 +1258,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -673,1008 +1282,1018 @@
     <col min="8" max="8" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="66.95" customHeight="1">
-      <c r="C1" s="18" t="s">
+    <row r="1" ht="66.95" customHeight="1" spans="3:22">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-    </row>
-    <row r="2" spans="1:22" ht="24" customHeight="1">
-      <c r="C2" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="3:10">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="18">
-      <c r="A3" s="20" t="s">
+    <row r="3" ht="18" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="7">
         <v>43767</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="7">
         <v>43769</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="8">
         <v>3</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18">
-      <c r="A4" s="20"/>
-      <c r="B4" s="3">
+    <row r="4" ht="18" spans="1:9">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:22" ht="18">
-      <c r="A5" s="20"/>
-      <c r="B5" s="3">
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" ht="18" spans="1:9">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:22" ht="18">
-      <c r="A6" s="20"/>
-      <c r="B6" s="3">
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" ht="18" spans="1:9">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:22" ht="18">
-      <c r="A7" s="20"/>
-      <c r="B7" s="3">
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" ht="18" spans="1:9">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:22" ht="18">
-      <c r="A8" s="20"/>
-      <c r="B8" s="3">
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" ht="18" spans="1:9">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:22" ht="18">
-      <c r="A9" s="20"/>
-      <c r="B9" s="3">
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" ht="18" spans="1:9">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:22" ht="18">
-      <c r="A10" s="20" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" ht="18" spans="1:9">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>0.5</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>43781.375</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <v>43781.5</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="13" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="18">
-      <c r="A11" s="20"/>
-      <c r="B11" s="3">
+    <row r="11" ht="18" spans="1:9">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="7">
         <v>43766</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="7">
         <v>43767</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="18">
-      <c r="A12" s="20"/>
-      <c r="B12" s="3">
+    <row r="12" ht="18" spans="1:9">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:22" ht="18">
-      <c r="A13" s="20"/>
-      <c r="B13" s="3">
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" ht="18" spans="1:9">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>0.5</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>43767.5</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <v>43767.75</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>0.5</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="18">
-      <c r="A14" s="20"/>
-      <c r="B14" s="3">
+    <row r="14" ht="18" spans="1:9">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="6">
         <v>5</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="7">
         <v>43768</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="7">
         <v>43774</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="10">
         <v>5</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="18">
-      <c r="A15" s="20"/>
-      <c r="B15" s="3">
+    <row r="15" ht="18" spans="1:9">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:22" ht="18">
-      <c r="A16" s="20"/>
-      <c r="B16" s="3">
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" ht="18" spans="1:9">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="18">
-      <c r="A17" s="20"/>
-      <c r="B17" s="3">
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" ht="18" spans="1:9">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="18">
-      <c r="A18" s="20"/>
-      <c r="B18" s="3">
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" ht="18" spans="1:9">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="7">
         <v>43775</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="7">
         <v>43775</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18">
-      <c r="A19" s="20"/>
-      <c r="B19" s="3">
+    <row r="19" ht="18" spans="1:9">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" ht="18">
-      <c r="A20" s="20"/>
-      <c r="B20" s="3">
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" ht="18" spans="1:9">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="20"/>
-      <c r="B21" s="3">
+      <c r="D20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" ht="18" spans="1:9">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="20"/>
-      <c r="B22" s="3">
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" ht="18" spans="1:9">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" ht="18">
-      <c r="A23" s="20"/>
-      <c r="B23" s="3">
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" ht="18" spans="1:9">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="11">
         <v>1.5</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="9">
         <v>43781.5</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="9">
         <v>43782.75</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="20"/>
-      <c r="B24" s="3">
+    <row r="24" ht="18" spans="1:9">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>43776</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>43776</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="8">
         <v>1</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18">
-      <c r="A25" s="20"/>
-      <c r="B25" s="3">
+    <row r="25" ht="18" spans="1:9">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="11">
         <v>0.5</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="9">
         <v>43777.375</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="9">
         <v>43777.5</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="8">
         <v>0.5</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18">
-      <c r="A26" s="20"/>
-      <c r="B26" s="3">
+    <row r="26" ht="18" spans="1:9">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="6">
         <v>0.5</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="9">
         <v>43777.5</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="9">
         <v>43777.75</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="8">
         <v>0.5</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18">
-      <c r="A27" s="20"/>
-      <c r="B27" s="3">
+    <row r="27" ht="18" spans="1:9">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" ht="18">
-      <c r="A28" s="20"/>
-      <c r="B28" s="3">
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" ht="18" spans="1:9">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="11">
         <v>1.5</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>43780</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="9">
         <v>43781.5</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="I28" s="7" t="s">
+      <c r="G28" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18">
-      <c r="A29" s="20"/>
-      <c r="B29" s="3">
+    <row r="29" ht="18" spans="1:9">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="11">
         <v>1.5</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="9">
         <v>43781.5</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="7">
         <v>43782</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="I29" s="7" t="s">
+      <c r="G29" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18">
-      <c r="A30" s="20"/>
-      <c r="B30" s="3">
+    <row r="30" ht="18" spans="1:9">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="6">
         <v>1</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="7">
         <v>43783</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="7">
         <v>43783</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18">
-      <c r="A31" s="20"/>
-      <c r="B31" s="3">
+    <row r="31" ht="18" spans="1:9">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="1"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" ht="18">
-      <c r="A32" s="20"/>
-      <c r="B32" s="3">
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" ht="18" spans="1:9">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="1"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" ht="18">
-      <c r="A33" s="20"/>
-      <c r="B33" s="3">
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" ht="18" spans="1:9">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="6">
         <v>1</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="7">
         <v>43784</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="9">
         <v>43784.75</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18">
-      <c r="A34" s="20"/>
-      <c r="B34" s="3">
+    <row r="34" ht="18" spans="1:9">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="1"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" ht="18">
-      <c r="A35" s="20"/>
-      <c r="B35" s="3">
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" ht="18" spans="1:9">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4">
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="1"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" ht="18">
-      <c r="A36" s="20"/>
-      <c r="B36" s="3">
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" ht="18" spans="1:9">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="1"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" ht="18">
-      <c r="A37" s="20"/>
-      <c r="B37" s="3">
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" ht="18" spans="1:9">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="6">
         <v>2</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="7">
         <v>43783</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="9">
         <v>43784.75</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18">
-      <c r="A38" s="20"/>
-      <c r="B38" s="3">
+    <row r="38" ht="18" spans="1:9">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4">
         <v>36</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="1"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" ht="18">
-      <c r="A39" s="20"/>
-      <c r="B39" s="3">
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" ht="18" spans="1:9">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4">
         <v>37</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="1"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" ht="18">
-      <c r="A40" s="20"/>
-      <c r="B40" s="3">
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" ht="18" spans="1:9">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4">
         <v>38</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="1"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="20"/>
-      <c r="B41" s="3">
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" ht="18" spans="1:9">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4">
         <v>39</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="1"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:9" ht="18">
-      <c r="A42" s="20"/>
-      <c r="B42" s="3">
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" ht="18" spans="1:9">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4">
         <v>40</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="1"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" ht="18">
-      <c r="A43" s="20"/>
-      <c r="B43" s="3">
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" ht="18" spans="1:9">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="1"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:9" ht="18">
-      <c r="A44" s="20"/>
-      <c r="B44" s="3">
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" ht="18" spans="1:9">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4">
         <v>42</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="1"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="45.95" customHeight="1" spans="1:9">
+      <c r="A45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>43</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="13">
         <v>2</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="7">
         <v>43770</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="7">
         <v>43773</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="8">
         <v>1</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18">
-      <c r="A46" s="20" t="s">
+    <row r="46" ht="18" spans="1:9">
+      <c r="A46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="6">
         <v>3</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="7">
         <v>43775</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="9">
         <v>43777.75</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="8">
         <v>3</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18">
-      <c r="A47" s="20"/>
-      <c r="B47" s="3">
+    <row r="47" ht="18" spans="1:9">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4">
         <v>45</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="1:9" ht="18">
-      <c r="A48" s="20"/>
-      <c r="B48" s="3">
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" ht="18" spans="1:9">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="1:9" ht="18">
-      <c r="A49" s="20"/>
-      <c r="B49" s="3">
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" ht="18" spans="1:9">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4">
         <v>47</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="1:9" ht="18">
-      <c r="A50" s="20"/>
-      <c r="B50" s="3">
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" ht="18" spans="1:9">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="1:9" ht="18">
-      <c r="A51" s="20"/>
-      <c r="B51" s="3">
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" ht="18" spans="1:9">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4">
         <v>49</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="6">
         <v>1</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="7">
         <v>43780</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="7">
         <v>43780</v>
       </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="1:9" ht="18">
-      <c r="A52" s="3" t="s">
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" ht="18" spans="1:9">
+      <c r="A52" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>50</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="6">
         <v>1</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="7">
         <v>43766</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="7">
         <v>43766</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="8">
         <v>1</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18">
-      <c r="C53" s="4"/>
-      <c r="D53" s="12" t="s">
+    <row r="53" ht="18" spans="3:7">
+      <c r="C53" s="5"/>
+      <c r="D53" s="14" t="s">
         <v>67</v>
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="48.95" customHeight="1">
-      <c r="A54" s="7" t="s">
+    <row r="54" ht="48.95" customHeight="1" spans="1:6">
+      <c r="A54" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -1694,6 +2313,11 @@
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E36"/>
     <mergeCell ref="E37:E44"/>
     <mergeCell ref="E46:E50"/>
     <mergeCell ref="F3:F9"/>
@@ -1705,11 +2329,11 @@
     <mergeCell ref="F33:F36"/>
     <mergeCell ref="F37:F44"/>
     <mergeCell ref="F46:F50"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="G46:G51"/>
     <mergeCell ref="H3:H9"/>
     <mergeCell ref="H11:H12"/>
@@ -1717,23 +2341,18 @@
     <mergeCell ref="H18:H22"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="H46:H51"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I37:I44"/>
-    <mergeCell ref="I46:I51"/>
     <mergeCell ref="I3:I9"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I14:I17"/>
     <mergeCell ref="I18:I22"/>
     <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I37:I44"/>
+    <mergeCell ref="I46:I51"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>